--- a/biology/Zoologie/Combattant_anglais_moderne/Combattant_anglais_moderne.xlsx
+++ b/biology/Zoologie/Combattant_anglais_moderne/Combattant_anglais_moderne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Combattant anglais moderne (en anglais : Modern Game) est une race de poule domestique d'origine anglaise.
 </t>
@@ -511,13 +523,85 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une poule d'exposition, au port très relevé, les épaules portée haute et le cou long.
-Origine
-Originaire du Royaume-Uni. Il est issu du croisement entre le combattant anglais ancien et le combattant malais[1].
-Standard officiel
-Crête : simple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Combattant_anglais_moderne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combattant_anglais_moderne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Royaume-Uni. Il est issu du croisement entre le combattant anglais ancien et le combattant malais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Combattant_anglais_moderne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combattant_anglais_moderne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard officiel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crête : simple
 Oreillons : rouges
 Couleur des yeux : selon variété
 Couleur de la peau : blanche
